--- a/src/data/protein_lists/List2_IP_FC1.5.xlsx
+++ b/src/data/protein_lists/List2_IP_FC1.5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,81 +408,114 @@
           <t>counter.vv.IP</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>foldchange.log2.IP.DR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue.log2.DR.IP</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue.log2.DR.IP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O35454</t>
+          <t>Q9ER58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&gt;sp|O35454|CLCN6_MOUSE H(+)/Cl(-) exchange transporter 6 OS=Mus musculus OX=10090 GN=Clcn6 PE=1 SV=1</t>
+          <t>&gt;sp|Q9ER58|TICN2_MOUSE Testican-2 OS=Mus musculus OX=10090 GN=Spock2 PE=1 SV=1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLCN6</t>
+          <t>SPOCK2</t>
         </is>
       </c>
       <c r="D2">
-        <v>20.1366383760936</v>
+        <v>20.9793168928956</v>
       </c>
       <c r="E2">
-        <v>20.0553494213451</v>
+        <v>20.8377791333511</v>
       </c>
       <c r="F2">
-        <v>20.898878447744</v>
+        <v>20.1262900932832</v>
       </c>
       <c r="G2">
-        <v>21.1859765108304</v>
+        <v>19.6478166943498</v>
       </c>
       <c r="H2">
-        <v>20.0357658551558</v>
+        <v>17.4835150879195</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
         <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1.79637620769184</v>
+      </c>
+      <c r="L2">
+        <v>0.000623165620471059</v>
+      </c>
+      <c r="M2">
+        <v>0.00077736879068957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P29351</t>
+          <t>O35454</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&gt;sp|P29351|PTN6_MOUSE Tyrosine-protein phosphatase non-receptor type 6 OS=Mus musculus OX=10090 GN=Ptpn6 PE=1 SV=2</t>
+          <t>&gt;sp|O35454|CLCN6_MOUSE H(+)/Cl(-) exchange transporter 6 OS=Mus musculus OX=10090 GN=Clcn6 PE=1 SV=1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PTPN6</t>
+          <t>CLCN6</t>
         </is>
       </c>
       <c r="D3">
-        <v>19.9204426966676</v>
+        <v>20.1366383760936</v>
       </c>
       <c r="E3">
-        <v>19.4497241851181</v>
+        <v>20.0553494213451</v>
       </c>
       <c r="F3">
-        <v>19.3302798508843</v>
+        <v>20.898878447744</v>
       </c>
       <c r="G3">
-        <v>18.6633020487785</v>
+        <v>21.1859765108304</v>
       </c>
       <c r="H3">
-        <v>20.4417631860989</v>
+        <v>20.0357658551558</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
         <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1.32329559770233</v>
+      </c>
+      <c r="L3">
+        <v>0.00458829748660794</v>
+      </c>
+      <c r="M3">
+        <v>0.00512518540827742</v>
       </c>
     </row>
     <row r="4">
@@ -522,81 +555,108 @@
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="K4">
+        <v>1.14669552833899</v>
+      </c>
+      <c r="L4">
+        <v>0.0181651590242124</v>
+      </c>
+      <c r="M4">
+        <v>0.019490078953041</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P70663</t>
+          <t>P29351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&gt;sp|P70663|SPRL1_MOUSE SPARC-like protein 1 OS=Mus musculus OX=10090 GN=Sparcl1 PE=1 SV=3</t>
+          <t>&gt;sp|P29351|PTN6_MOUSE Tyrosine-protein phosphatase non-receptor type 6 OS=Mus musculus OX=10090 GN=Ptpn6 PE=1 SV=2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SPARCL1</t>
+          <t>PTPN6</t>
         </is>
       </c>
       <c r="D5">
-        <v>19.9339955084115</v>
+        <v>19.9204426966676</v>
       </c>
       <c r="E5">
-        <v>19.9203782227086</v>
+        <v>19.4497241851181</v>
       </c>
       <c r="F5">
-        <v>19.5873634686112</v>
+        <v>19.3302798508843</v>
       </c>
       <c r="G5">
-        <v>18.7144173083314</v>
+        <v>18.6633020487785</v>
       </c>
       <c r="H5">
-        <v>18.6901514422351</v>
+        <v>20.4417631860989</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1.04916350261059</v>
+      </c>
+      <c r="L5">
+        <v>0.0219489203248836</v>
+      </c>
+      <c r="M5">
+        <v>0.0234284272460692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q9ER58</t>
+          <t>P70663</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&gt;sp|Q9ER58|TICN2_MOUSE Testican-2 OS=Mus musculus OX=10090 GN=Spock2 PE=1 SV=1</t>
+          <t>&gt;sp|P70663|SPRL1_MOUSE SPARC-like protein 1 OS=Mus musculus OX=10090 GN=Sparcl1 PE=1 SV=3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SPOCK2</t>
+          <t>SPARCL1</t>
         </is>
       </c>
       <c r="D6">
-        <v>20.9793168928956</v>
+        <v>19.9339955084115</v>
       </c>
       <c r="E6">
-        <v>20.8377791333511</v>
+        <v>19.9203782227086</v>
       </c>
       <c r="F6">
-        <v>20.1262900932832</v>
+        <v>19.5873634686112</v>
       </c>
       <c r="G6">
-        <v>19.6478166943498</v>
+        <v>18.7144173083314</v>
       </c>
       <c r="H6">
-        <v>17.4835150879195</v>
+        <v>18.6901514422351</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
         <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0.923439096239439</v>
+      </c>
+      <c r="L6">
+        <v>0.0314071835520967</v>
+      </c>
+      <c r="M6">
+        <v>0.0331951857566723</v>
       </c>
     </row>
   </sheetData>
